--- a/2-Empirical-Evidence/raw_data/Oregon.xlsx
+++ b/2-Empirical-Evidence/raw_data/Oregon.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN410010000000003</t>
@@ -970,10 +986,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>7.2</v>
@@ -1068,10 +1096,20 @@
       <c r="AF5" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>513.0</v>
@@ -1166,10 +1204,20 @@
       <c r="AF6" t="n" s="8">
         <v>524.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>383.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>331.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>308.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>6563.0</v>
@@ -1264,10 +1312,20 @@
       <c r="AF7" t="n" s="8">
         <v>6755.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>7066.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>7037.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>6775.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>7076.0</v>
@@ -1362,10 +1420,20 @@
       <c r="AF8" t="n" s="8">
         <v>7279.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>7449.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>7368.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>7083.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>4.9</v>
@@ -1460,10 +1528,20 @@
       <c r="AF9" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>1771.0</v>
@@ -1558,10 +1636,20 @@
       <c r="AF10" t="n" s="8">
         <v>2617.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>1878.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>1631.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>1484.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>34536.0</v>
@@ -1656,10 +1744,20 @@
       <c r="AF11" t="n" s="8">
         <v>44087.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>45668.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>47108.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>47861.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>36307.0</v>
@@ -1754,10 +1852,20 @@
       <c r="AF12" t="n" s="8">
         <v>46704.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>47546.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>48739.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>49345.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>3.4</v>
@@ -1852,10 +1960,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>5317.0</v>
@@ -1950,10 +2068,20 @@
       <c r="AF14" t="n" s="8">
         <v>15803.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>10721.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>8078.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>7566.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>151866.0</v>
@@ -2048,10 +2176,20 @@
       <c r="AF15" t="n" s="8">
         <v>202879.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>211796.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>217242.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>217509.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>157183.0</v>
@@ -2146,10 +2284,20 @@
       <c r="AF16" t="n" s="8">
         <v>218682.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>222517.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>225320.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>225075.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>6.9</v>
@@ -2244,10 +2392,20 @@
       <c r="AF17" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>1128.0</v>
@@ -2342,10 +2500,20 @@
       <c r="AF18" t="n" s="8">
         <v>1826.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>1145.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>788.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>722.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>15297.0</v>
@@ -2440,10 +2608,20 @@
       <c r="AF19" t="n" s="8">
         <v>17459.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>18320.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>18743.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>18946.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>16425.0</v>
@@ -2538,10 +2716,20 @@
       <c r="AF20" t="n" s="8">
         <v>19285.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>19465.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>19531.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>19668.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>6.2</v>
@@ -2636,10 +2824,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>1150.0</v>
@@ -2734,10 +2932,20 @@
       <c r="AF22" t="n" s="8">
         <v>1912.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>1401.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>1132.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>1093.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>17315.0</v>
@@ -2832,10 +3040,20 @@
       <c r="AF23" t="n" s="8">
         <v>22258.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>23197.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>23828.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>23874.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>18465.0</v>
@@ -2930,10 +3148,20 @@
       <c r="AF24" t="n" s="8">
         <v>24170.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>24598.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>24960.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>24967.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>8.2</v>
@@ -3028,10 +3256,20 @@
       <c r="AF25" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>2194.0</v>
@@ -3126,10 +3364,20 @@
       <c r="AF26" t="n" s="8">
         <v>2298.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>1667.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>1308.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>1206.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>24657.0</v>
@@ -3224,10 +3472,20 @@
       <c r="AF27" t="n" s="8">
         <v>24311.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>25156.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>25083.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>25457.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>26851.0</v>
@@ -3322,10 +3580,20 @@
       <c r="AF28" t="n" s="8">
         <v>26609.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>26823.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>26391.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>26663.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>6.8</v>
@@ -3420,10 +3688,20 @@
       <c r="AF29" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>462.0</v>
@@ -3518,10 +3796,20 @@
       <c r="AF30" t="n" s="8">
         <v>918.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>726.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>574.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>619.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>6328.0</v>
@@ -3616,10 +3904,20 @@
       <c r="AF31" t="n" s="8">
         <v>9466.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>10213.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>10608.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>10556.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>6790.0</v>
@@ -3714,10 +4012,20 @@
       <c r="AF32" t="n" s="8">
         <v>10384.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>10939.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>11182.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>11175.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.2</v>
@@ -3812,10 +4120,20 @@
       <c r="AF33" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>511.0</v>
@@ -3910,10 +4228,20 @@
       <c r="AF34" t="n" s="8">
         <v>780.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>603.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>467.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>7677.0</v>
@@ -4008,10 +4336,20 @@
       <c r="AF35" t="n" s="8">
         <v>8192.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>8592.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>8698.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>8611.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>8188.0</v>
@@ -4106,10 +4444,20 @@
       <c r="AF36" t="n" s="8">
         <v>8972.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>9195.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>9165.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>9030.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>5.3</v>
@@ -4204,10 +4552,20 @@
       <c r="AF37" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>2200.0</v>
@@ -4302,10 +4660,20 @@
       <c r="AF38" t="n" s="8">
         <v>7815.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>5369.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>4013.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>3850.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>39030.0</v>
@@ -4400,10 +4768,20 @@
       <c r="AF39" t="n" s="8">
         <v>90543.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>96769.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>98610.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>100812.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>41230.0</v>
@@ -4498,10 +4876,20 @@
       <c r="AF40" t="n" s="8">
         <v>98358.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>102138.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>102623.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>104662.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>8.0</v>
@@ -4596,10 +4984,20 @@
       <c r="AF41" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>3509.0</v>
@@ -4694,10 +5092,20 @@
       <c r="AF42" t="n" s="8">
         <v>3676.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>2780.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>2347.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>2206.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>40177.0</v>
@@ -4792,10 +5200,20 @@
       <c r="AF43" t="n" s="8">
         <v>43706.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>45105.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>45091.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>44756.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>43686.0</v>
@@ -4890,10 +5308,20 @@
       <c r="AF44" t="n" s="8">
         <v>47382.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>47885.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>47438.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>46962.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>3.6</v>
@@ -4988,10 +5416,20 @@
       <c r="AF45" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>33.0</v>
@@ -5086,10 +5524,20 @@
       <c r="AF46" t="n" s="8">
         <v>62.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>877.0</v>
@@ -5184,10 +5632,20 @@
       <c r="AF47" t="n" s="8">
         <v>931.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>898.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>933.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>900.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>910.0</v>
@@ -5282,10 +5740,20 @@
       <c r="AF48" t="n" s="8">
         <v>993.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>943.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>969.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>939.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>8.5</v>
@@ -5380,10 +5848,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>360.0</v>
@@ -5478,10 +5956,20 @@
       <c r="AF50" t="n" s="8">
         <v>270.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>215.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>186.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>3876.0</v>
@@ -5576,10 +6064,20 @@
       <c r="AF51" t="n" s="8">
         <v>2936.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>3023.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>3018.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>3024.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>4236.0</v>
@@ -5674,10 +6172,20 @@
       <c r="AF52" t="n" s="8">
         <v>3206.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>3238.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>3204.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>3184.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>8.8</v>
@@ -5772,10 +6280,20 @@
       <c r="AF53" t="n" s="10">
         <v>6.0</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>326.0</v>
@@ -5870,10 +6388,20 @@
       <c r="AF54" t="n" s="8">
         <v>217.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>193.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>152.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>3388.0</v>
@@ -5968,10 +6496,20 @@
       <c r="AF55" t="n" s="8">
         <v>3424.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>3583.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>3589.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>3472.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>3714.0</v>
@@ -6066,10 +6604,20 @@
       <c r="AF56" t="n" s="8">
         <v>3641.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>3776.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>3763.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>3624.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>8.0</v>
@@ -6164,10 +6712,20 @@
       <c r="AF57" t="n" s="10">
         <v>6.3</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>740.0</v>
@@ -6262,10 +6820,20 @@
       <c r="AF58" t="n" s="8">
         <v>885.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>649.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>480.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>8510.0</v>
@@ -6360,10 +6928,20 @@
       <c r="AF59" t="n" s="8">
         <v>13229.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>13792.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>13793.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>13759.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>9250.0</v>
@@ -6458,10 +7036,20 @@
       <c r="AF60" t="n" s="8">
         <v>14114.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>14441.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>14273.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>14178.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>6.5</v>
@@ -6556,10 +7144,20 @@
       <c r="AF61" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>4756.0</v>
@@ -6654,10 +7252,20 @@
       <c r="AF62" t="n" s="8">
         <v>8221.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>5800.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>4671.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>4574.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>68607.0</v>
@@ -6752,10 +7360,20 @@
       <c r="AF63" t="n" s="8">
         <v>97012.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>101199.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>101237.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>100828.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>73363.0</v>
@@ -6850,10 +7468,20 @@
       <c r="AF64" t="n" s="8">
         <v>105233.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>106999.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>105908.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>105402.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>6.3</v>
@@ -6948,10 +7576,20 @@
       <c r="AF65" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>415.0</v>
@@ -7046,10 +7684,20 @@
       <c r="AF66" t="n" s="8">
         <v>853.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>668.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>532.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>472.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>6171.0</v>
@@ -7144,10 +7792,20 @@
       <c r="AF67" t="n" s="8">
         <v>9482.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>9792.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>9676.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>9814.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>6586.0</v>
@@ -7242,10 +7900,20 @@
       <c r="AF68" t="n" s="8">
         <v>10335.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>10460.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>10208.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>10286.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>6.9</v>
@@ -7340,10 +8008,20 @@
       <c r="AF69" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>1844.0</v>
@@ -7438,10 +8116,20 @@
       <c r="AF70" t="n" s="8">
         <v>2863.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>2259.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>1911.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>1809.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>24695.0</v>
@@ -7536,10 +8224,20 @@
       <c r="AF71" t="n" s="8">
         <v>33291.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>34465.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>34411.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>33923.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>26539.0</v>
@@ -7634,10 +8332,20 @@
       <c r="AF72" t="n" s="8">
         <v>36154.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>36724.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>36322.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>35732.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>8.9</v>
@@ -7732,10 +8440,20 @@
       <c r="AF73" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>2415.0</v>
@@ -7830,10 +8548,20 @@
       <c r="AF74" t="n" s="8">
         <v>2583.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>1984.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>1701.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>1554.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>24821.0</v>
@@ -7928,10 +8656,20 @@
       <c r="AF75" t="n" s="8">
         <v>26982.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>27844.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>28373.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>28398.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>27236.0</v>
@@ -8026,10 +8764,20 @@
       <c r="AF76" t="n" s="8">
         <v>29565.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>29828.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>30074.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>29952.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>8.7</v>
@@ -8124,10 +8872,20 @@
       <c r="AF77" t="n" s="10">
         <v>5.7</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>325.0</v>
@@ -8222,10 +8980,20 @@
       <c r="AF78" t="n" s="8">
         <v>207.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>204.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>188.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>3409.0</v>
@@ -8320,10 +9088,20 @@
       <c r="AF79" t="n" s="8">
         <v>3454.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>3525.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>3473.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>3425.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>3734.0</v>
@@ -8418,10 +9196,20 @@
       <c r="AF80" t="n" s="8">
         <v>3661.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>3729.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>3661.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>3605.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>6.1</v>
@@ -8516,10 +9304,20 @@
       <c r="AF81" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>8939.0</v>
@@ -8614,10 +9412,20 @@
       <c r="AF82" t="n" s="8">
         <v>14111.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>9968.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>7815.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>7196.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>138213.0</v>
@@ -8712,10 +9520,20 @@
       <c r="AF83" t="n" s="8">
         <v>165227.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>172299.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>174653.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>174945.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>147152.0</v>
@@ -8810,10 +9628,20 @@
       <c r="AF84" t="n" s="8">
         <v>179338.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>182267.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>182468.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>182141.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>5.9</v>
@@ -8908,10 +9736,20 @@
       <c r="AF85" t="n" s="10">
         <v>10.8</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>1117.0</v>
@@ -9006,10 +9844,20 @@
       <c r="AF86" t="n" s="8">
         <v>2250.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>1407.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>1018.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>900.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>17930.0</v>
@@ -9104,10 +9952,20 @@
       <c r="AF87" t="n" s="8">
         <v>18523.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>19704.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>19899.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>20305.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>19047.0</v>
@@ -9202,10 +10060,20 @@
       <c r="AF88" t="n" s="8">
         <v>20773.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>21111.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>20917.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>21205.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>7.4</v>
@@ -9300,10 +10168,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>3284.0</v>
@@ -9398,10 +10276,20 @@
       <c r="AF90" t="n" s="8">
         <v>4584.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>3369.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>2659.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>2464.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>41054.0</v>
@@ -9496,10 +10384,20 @@
       <c r="AF91" t="n" s="8">
         <v>54618.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>57255.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>58440.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>58081.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>44338.0</v>
@@ -9594,10 +10492,20 @@
       <c r="AF92" t="n" s="8">
         <v>59202.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>60624.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>61099.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>60545.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>4.9</v>
@@ -9692,10 +10600,20 @@
       <c r="AF93" t="n" s="10">
         <v>5.3</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>680.0</v>
@@ -9790,10 +10708,20 @@
       <c r="AF94" t="n" s="8">
         <v>663.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>519.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>470.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>13160.0</v>
@@ -9888,10 +10816,20 @@
       <c r="AF95" t="n" s="8">
         <v>11931.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>12167.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>12176.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>12374.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>13840.0</v>
@@ -9986,10 +10924,20 @@
       <c r="AF96" t="n" s="8">
         <v>12594.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>12724.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>12695.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>12844.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>5.3</v>
@@ -10084,10 +11032,20 @@
       <c r="AF97" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>6251.0</v>
@@ -10182,10 +11140,20 @@
       <c r="AF98" t="n" s="8">
         <v>11338.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>8480.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>6788.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>6336.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>111172.0</v>
@@ -10280,10 +11248,20 @@
       <c r="AF99" t="n" s="8">
         <v>151468.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>158642.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>162048.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>163655.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>117423.0</v>
@@ -10378,10 +11356,20 @@
       <c r="AF100" t="n" s="8">
         <v>162806.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>167122.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>168836.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>169991.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>7.7</v>
@@ -10476,10 +11464,20 @@
       <c r="AF101" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>299.0</v>
@@ -10574,10 +11572,20 @@
       <c r="AF102" t="n" s="8">
         <v>299.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>273.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>231.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>208.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>3564.0</v>
@@ -10672,10 +11680,20 @@
       <c r="AF103" t="n" s="8">
         <v>5462.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>5667.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>5753.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>5891.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>3863.0</v>
@@ -10770,10 +11788,20 @@
       <c r="AF104" t="n" s="8">
         <v>5761.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>5940.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>5984.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>6099.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>5.0</v>
@@ -10868,10 +11896,20 @@
       <c r="AF105" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>15957.0</v>
@@ -10966,10 +12004,20 @@
       <c r="AF106" t="n" s="8">
         <v>39243.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>25027.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>17207.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>16568.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>304601.0</v>
@@ -11064,10 +12112,20 @@
       <c r="AF107" t="n" s="8">
         <v>417372.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>435841.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>447900.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>448461.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>320558.0</v>
@@ -11162,10 +12220,20 @@
       <c r="AF108" t="n" s="8">
         <v>456615.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>460868.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>465107.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>465029.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>5.4</v>
@@ -11260,10 +12328,20 @@
       <c r="AF109" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>1363.0</v>
@@ -11358,10 +12436,20 @@
       <c r="AF110" t="n" s="8">
         <v>2655.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>2028.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>1684.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>1602.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>23654.0</v>
@@ -11456,10 +12544,20 @@
       <c r="AF111" t="n" s="8">
         <v>38053.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>39873.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>40678.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>41094.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>25017.0</v>
@@ -11554,10 +12652,20 @@
       <c r="AF112" t="n" s="8">
         <v>40708.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>41901.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>42362.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>42696.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>5.3</v>
@@ -11652,10 +12760,20 @@
       <c r="AF113" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>48.0</v>
@@ -11750,10 +12868,20 @@
       <c r="AF114" t="n" s="8">
         <v>61.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>864.0</v>
@@ -11848,10 +12976,20 @@
       <c r="AF115" t="n" s="8">
         <v>917.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>922.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>925.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>930.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>912.0</v>
@@ -11946,10 +13084,20 @@
       <c r="AF116" t="n" s="8">
         <v>978.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>963.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>955.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>967.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>5.7</v>
@@ -12044,10 +13192,20 @@
       <c r="AF117" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>549.0</v>
@@ -12142,10 +13300,20 @@
       <c r="AF118" t="n" s="8">
         <v>953.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>661.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>504.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>458.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>9043.0</v>
@@ -12240,10 +13408,20 @@
       <c r="AF119" t="n" s="8">
         <v>10922.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>11483.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>11617.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>11708.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>9592.0</v>
@@ -12338,10 +13516,20 @@
       <c r="AF120" t="n" s="8">
         <v>11875.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>12144.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>12121.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>12166.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>8.1</v>
@@ -12436,10 +13624,20 @@
       <c r="AF121" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>2436.0</v>
@@ -12534,10 +13732,20 @@
       <c r="AF122" t="n" s="8">
         <v>2519.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>1964.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>1639.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>1574.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>27454.0</v>
@@ -12632,10 +13840,20 @@
       <c r="AF123" t="n" s="8">
         <v>34389.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>35580.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>36279.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>37029.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>29890.0</v>
@@ -12730,10 +13948,20 @@
       <c r="AF124" t="n" s="8">
         <v>36908.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>37544.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>37918.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>38603.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>6.8</v>
@@ -12828,10 +14056,20 @@
       <c r="AF125" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>802.0</v>
@@ -12926,10 +14164,20 @@
       <c r="AF126" t="n" s="8">
         <v>947.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>678.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>543.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>474.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>11018.0</v>
@@ -13024,10 +14272,20 @@
       <c r="AF127" t="n" s="8">
         <v>11084.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>11516.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>11546.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>11589.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>11820.0</v>
@@ -13122,10 +14380,20 @@
       <c r="AF128" t="n" s="8">
         <v>12031.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>12194.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>12089.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>12063.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>7.3</v>
@@ -13220,10 +14488,20 @@
       <c r="AF129" t="n" s="10">
         <v>7.2</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>260.0</v>
@@ -13318,10 +14596,20 @@
       <c r="AF130" t="n" s="8">
         <v>248.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>196.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>159.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>3286.0</v>
@@ -13416,10 +14704,20 @@
       <c r="AF131" t="n" s="8">
         <v>3220.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>3407.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>3411.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>3426.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>3546.0</v>
@@ -13514,10 +14812,20 @@
       <c r="AF132" t="n" s="8">
         <v>3468.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>3603.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>3595.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>3585.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>6.8</v>
@@ -13612,10 +14920,20 @@
       <c r="AF133" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>752.0</v>
@@ -13710,10 +15028,20 @@
       <c r="AF134" t="n" s="8">
         <v>956.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>707.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>545.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>529.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>10254.0</v>
@@ -13808,10 +15136,20 @@
       <c r="AF135" t="n" s="8">
         <v>12512.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>12914.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>12846.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>12645.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>11006.0</v>
@@ -13906,10 +15244,20 @@
       <c r="AF136" t="n" s="8">
         <v>13468.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>13621.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>13391.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>13174.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>3.3</v>
@@ -14004,10 +15352,20 @@
       <c r="AF137" t="n" s="10">
         <v>6.5</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>6109.0</v>
@@ -14102,10 +15460,20 @@
       <c r="AF138" t="n" s="8">
         <v>20855.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>14275.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>10894.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>10711.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>180816.0</v>
@@ -14200,10 +15568,20 @@
       <c r="AF139" t="n" s="8">
         <v>300230.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>312877.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>321631.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>321932.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>186925.0</v>
@@ -14298,10 +15676,20 @@
       <c r="AF140" t="n" s="8">
         <v>321085.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>327152.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>332525.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>332643.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>10.3</v>
@@ -14396,10 +15784,20 @@
       <c r="AF141" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>61.0</v>
@@ -14494,10 +15892,20 @@
       <c r="AF142" t="n" s="8">
         <v>31.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>531.0</v>
@@ -14592,10 +16000,20 @@
       <c r="AF143" t="n" s="8">
         <v>665.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>699.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>716.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>776.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>592.0</v>
@@ -14690,10 +16108,20 @@
       <c r="AF144" t="n" s="8">
         <v>696.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>723.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>740.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>798.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>5.2</v>
@@ -14788,10 +16216,20 @@
       <c r="AF145" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>1707.0</v>
@@ -14886,10 +16324,20 @@
       <c r="AF146" t="n" s="8">
         <v>3662.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>2612.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>2038.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>1934.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>30970.0</v>
@@ -14984,10 +16432,20 @@
       <c r="AF147" t="n" s="8">
         <v>50550.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>52654.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>54013.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>54113.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>32677.0</v>
@@ -15082,6 +16540,16 @@
       <c r="AF148" t="n" s="8">
         <v>54212.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>55266.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>56051.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>56047.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -15092,7 +16560,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (02:23:16 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (03:01:02 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
